--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A03774-CD92-D246-8A57-52DF2C7BE09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="920" windowWidth="23980" windowHeight="14920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="HealthScore 2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>MA25</t>
   </si>
@@ -38,6 +32,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Life Expectancy</t>
   </si>
   <si>
     <t>% Public Transit</t>
@@ -73,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,11 +123,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -140,14 +134,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -194,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,38 +421,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -529,116 +474,116 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.4147</v>
+      </c>
+      <c r="F4">
+        <v>81</v>
+      </c>
+      <c r="G4">
+        <v>1.3229</v>
+      </c>
+      <c r="H4">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="I4">
+        <v>1.6708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>10.4</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E7">
-        <v>6.7</v>
-      </c>
-      <c r="F7">
-        <v>11.1</v>
-      </c>
-      <c r="G7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H7">
-        <v>13.4</v>
-      </c>
-      <c r="I7">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.9000000000000004</v>
+        <v>10.4</v>
       </c>
       <c r="C8">
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>13.4</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="C9">
         <v>0.1</v>
@@ -650,281 +595,310 @@
         <v>1.2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G9">
         <v>0.9</v>
       </c>
       <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="E10">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0.9</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>81215</v>
-      </c>
-      <c r="C13">
-        <v>429</v>
-      </c>
-      <c r="D13">
-        <v>75449</v>
-      </c>
-      <c r="E13">
-        <v>11437</v>
-      </c>
-      <c r="F13">
-        <v>69844</v>
-      </c>
-      <c r="G13">
-        <v>15751</v>
-      </c>
-      <c r="H13">
-        <v>80350</v>
-      </c>
-      <c r="I13">
-        <v>14555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>10.3</v>
+        <v>81215</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>429</v>
       </c>
       <c r="D14">
-        <v>6.4</v>
+        <v>75449</v>
       </c>
       <c r="E14">
-        <v>3.7</v>
+        <v>11437</v>
       </c>
       <c r="F14">
-        <v>8.9</v>
+        <v>69844</v>
       </c>
       <c r="G14">
-        <v>3.8</v>
+        <v>15751</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>80350</v>
       </c>
       <c r="I14">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>4.8</v>
+        <v>10.3</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="E15">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="G15">
         <v>3.8</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>51.3</v>
+        <v>4.8</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>32.5</v>
+        <v>1.9</v>
       </c>
       <c r="E16">
-        <v>12.6</v>
+        <v>2.5</v>
       </c>
       <c r="F16">
-        <v>31.6</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>8.6</v>
+        <v>3.8</v>
       </c>
       <c r="H16">
-        <v>48.5</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>21.92545623689066</v>
+        <v>51.3</v>
       </c>
       <c r="C17">
-        <v>100.0011341800011</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
-        <v>30.850316233309911</v>
+        <v>32.5</v>
       </c>
       <c r="E17">
-        <v>14.342629482071709</v>
+        <v>12.6</v>
       </c>
       <c r="F17">
-        <v>70.990625791740555</v>
+        <v>31.6</v>
       </c>
       <c r="G17">
-        <v>10.989010989010991</v>
+        <v>8.6</v>
       </c>
       <c r="H17">
-        <v>17.952549971978328</v>
+        <v>48.5</v>
       </c>
       <c r="I17">
-        <v>17.097415506958249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>5.8</v>
+        <v>21.92545623689066</v>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>100.0011341800011</v>
       </c>
       <c r="D18">
-        <v>4.7</v>
+        <v>30.85031623330991</v>
       </c>
       <c r="E18">
-        <v>4.4000000000000004</v>
+        <v>14.34262948207171</v>
       </c>
       <c r="F18">
-        <v>6.4</v>
+        <v>70.99062579174056</v>
       </c>
       <c r="G18">
-        <v>4.3</v>
+        <v>10.98901098901099</v>
       </c>
       <c r="H18">
-        <v>0.8</v>
+        <v>17.95254997197833</v>
       </c>
       <c r="I18">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.09741550695825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>46.683767766255187</v>
+        <v>5.8</v>
       </c>
       <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>4.7</v>
+      </c>
+      <c r="E19">
+        <v>4.4</v>
+      </c>
+      <c r="F19">
+        <v>6.4</v>
+      </c>
+      <c r="G19">
+        <v>4.3</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>46.68376776625519</v>
+      </c>
+      <c r="C20">
         <v>173.9130434782609</v>
       </c>
-      <c r="D19">
-        <v>49.044585987261136</v>
-      </c>
-      <c r="E19">
+      <c r="D20">
+        <v>49.04458598726114</v>
+      </c>
+      <c r="E20">
         <v>119.4285714285714</v>
       </c>
-      <c r="F19">
-        <v>73.695198329853866</v>
-      </c>
-      <c r="G19">
-        <v>252.19512195121951</v>
-      </c>
-      <c r="H19">
-        <v>74.342105263157904</v>
-      </c>
-      <c r="I19">
-        <v>163.38028169014089</v>
+      <c r="F20">
+        <v>73.69519832985387</v>
+      </c>
+      <c r="G20">
+        <v>252.1951219512195</v>
+      </c>
+      <c r="H20">
+        <v>74.3421052631579</v>
+      </c>
+      <c r="I20">
+        <v>163.3802816901409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5859D5DE-8441-844F-A729-FC4E8B1633E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HealthScore 2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>MA25</t>
   </si>
@@ -35,6 +41,27 @@
   </si>
   <si>
     <t>Life Expectancy</t>
+  </si>
+  <si>
+    <t>Cancer (excluding skin cancer) among adults &gt;= 18</t>
+  </si>
+  <si>
+    <t>Current asthma among adults &gt;= 18</t>
+  </si>
+  <si>
+    <t>COPD among adults &gt;= 18</t>
+  </si>
+  <si>
+    <t>Coronary heart disease among adults &gt;= 18</t>
+  </si>
+  <si>
+    <t>Diabetes among adults &gt;= 18</t>
+  </si>
+  <si>
+    <t>Stroke among adults &gt;= 18</t>
+  </si>
+  <si>
+    <t>Mental health not good for &gt;= 14 days among adults &gt;= 18</t>
   </si>
   <si>
     <t>% Public Transit</t>
@@ -70,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -134,6 +164,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +250,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +302,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,33 +495,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -474,21 +553,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>80.7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="D4">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E4">
-        <v>1.4147</v>
+        <v>1.4147000000000001</v>
       </c>
       <c r="F4">
         <v>81</v>
@@ -497,408 +576,611 @@
         <v>1.3229</v>
       </c>
       <c r="H4">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="I4">
-        <v>1.6708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+        <v>1.6708000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5.8</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>7.1</v>
+      </c>
+      <c r="E5">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F5">
+        <v>6.6</v>
+      </c>
+      <c r="G5">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="H5">
+        <v>7.1</v>
+      </c>
+      <c r="I5">
+        <v>0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10.3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10.7</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>11.4</v>
+      </c>
+      <c r="G6">
+        <v>0.40000000000000041</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
+        <v>6.3</v>
+      </c>
+      <c r="E7">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F7">
+        <v>6.4</v>
+      </c>
+      <c r="G7">
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H7">
+        <v>5.5</v>
+      </c>
+      <c r="I7">
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3.1</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>6.2</v>
+      </c>
+      <c r="E8">
+        <v>0.60000000000000053</v>
+      </c>
+      <c r="F8">
+        <v>6.4</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>5.7</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7.7</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>9.1</v>
+      </c>
+      <c r="E9">
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="F9">
+        <v>11.4</v>
+      </c>
+      <c r="G9">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="H9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I9">
+        <v>0.69999999999999929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>3.4</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>3.1</v>
+      </c>
+      <c r="E10">
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="F10">
+        <v>3.6</v>
+      </c>
+      <c r="G10">
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="H10">
+        <v>2.7</v>
+      </c>
+      <c r="I10">
+        <v>0.30000000000000032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11">
+        <v>14.2</v>
+      </c>
+      <c r="E11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11">
+        <v>14.2</v>
+      </c>
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <v>12.8</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>10.4</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>19.1</v>
-      </c>
-      <c r="E8">
-        <v>6.7</v>
-      </c>
-      <c r="F8">
-        <v>11.1</v>
-      </c>
-      <c r="G8">
-        <v>5.1</v>
-      </c>
-      <c r="H8">
-        <v>13.4</v>
-      </c>
-      <c r="I8">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4.9</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1.2</v>
-      </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
-      <c r="G9">
-        <v>0.9</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.9</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.9</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>81215</v>
-      </c>
-      <c r="C14">
-        <v>429</v>
-      </c>
-      <c r="D14">
-        <v>75449</v>
-      </c>
-      <c r="E14">
-        <v>11437</v>
-      </c>
-      <c r="F14">
-        <v>69844</v>
-      </c>
-      <c r="G14">
-        <v>15751</v>
-      </c>
-      <c r="H14">
-        <v>80350</v>
-      </c>
-      <c r="I14">
-        <v>14555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>10.3</v>
-      </c>
-      <c r="C15">
-        <v>0.2</v>
-      </c>
-      <c r="D15">
-        <v>6.4</v>
-      </c>
-      <c r="E15">
-        <v>3.7</v>
-      </c>
-      <c r="F15">
-        <v>8.9</v>
-      </c>
-      <c r="G15">
-        <v>3.8</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>4.8</v>
       </c>
       <c r="C16">
         <v>0.1</v>
       </c>
       <c r="D16">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E16">
+        <v>6.7</v>
+      </c>
+      <c r="F16">
+        <v>11.1</v>
+      </c>
+      <c r="G16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H16">
+        <v>13.4</v>
+      </c>
+      <c r="I16">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>0.9</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.9</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>81215</v>
+      </c>
+      <c r="C23">
+        <v>429</v>
+      </c>
+      <c r="D23">
+        <v>75449</v>
+      </c>
+      <c r="E23">
+        <v>11437</v>
+      </c>
+      <c r="F23">
+        <v>69844</v>
+      </c>
+      <c r="G23">
+        <v>15751</v>
+      </c>
+      <c r="H23">
+        <v>80350</v>
+      </c>
+      <c r="I23">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>10.3</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>6.4</v>
+      </c>
+      <c r="E24">
+        <v>3.7</v>
+      </c>
+      <c r="F24">
+        <v>8.9</v>
+      </c>
+      <c r="G24">
+        <v>3.8</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>4.8</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
         <v>1.9</v>
       </c>
-      <c r="E16">
+      <c r="E25">
         <v>2.5</v>
       </c>
-      <c r="F16">
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G25">
         <v>3.8</v>
       </c>
-      <c r="H16">
+      <c r="H25">
         <v>3.1</v>
       </c>
-      <c r="I16">
+      <c r="I25">
         <v>1.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
         <v>51.3</v>
       </c>
-      <c r="C17">
+      <c r="C26">
         <v>0.3</v>
       </c>
-      <c r="D17">
+      <c r="D26">
         <v>32.5</v>
       </c>
-      <c r="E17">
+      <c r="E26">
         <v>12.6</v>
       </c>
-      <c r="F17">
+      <c r="F26">
         <v>31.6</v>
       </c>
-      <c r="G17">
+      <c r="G26">
         <v>8.6</v>
       </c>
-      <c r="H17">
+      <c r="H26">
         <v>48.5</v>
       </c>
-      <c r="I17">
+      <c r="I26">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
         <v>21.92545623689066</v>
       </c>
-      <c r="C18">
+      <c r="C27">
         <v>100.0011341800011</v>
       </c>
-      <c r="D18">
-        <v>30.85031623330991</v>
-      </c>
-      <c r="E18">
-        <v>14.34262948207171</v>
-      </c>
-      <c r="F18">
-        <v>70.99062579174056</v>
-      </c>
-      <c r="G18">
-        <v>10.98901098901099</v>
-      </c>
-      <c r="H18">
-        <v>17.95254997197833</v>
-      </c>
-      <c r="I18">
-        <v>17.09741550695825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
+      <c r="D27">
+        <v>30.850316233309911</v>
+      </c>
+      <c r="E27">
+        <v>14.342629482071709</v>
+      </c>
+      <c r="F27">
+        <v>70.990625791740555</v>
+      </c>
+      <c r="G27">
+        <v>10.989010989010991</v>
+      </c>
+      <c r="H27">
+        <v>17.952549971978328</v>
+      </c>
+      <c r="I27">
+        <v>17.097415506958249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
         <v>5.8</v>
       </c>
-      <c r="C19">
+      <c r="C28">
         <v>0.1</v>
       </c>
-      <c r="D19">
+      <c r="D28">
         <v>4.7</v>
       </c>
-      <c r="E19">
-        <v>4.4</v>
-      </c>
-      <c r="F19">
+      <c r="E28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F28">
         <v>6.4</v>
       </c>
-      <c r="G19">
+      <c r="G28">
         <v>4.3</v>
       </c>
-      <c r="H19">
+      <c r="H28">
         <v>0.8</v>
       </c>
-      <c r="I19">
+      <c r="I28">
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>46.68376776625519</v>
-      </c>
-      <c r="C20">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>46.683767766255187</v>
+      </c>
+      <c r="C29">
         <v>173.9130434782609</v>
       </c>
-      <c r="D20">
-        <v>49.04458598726114</v>
-      </c>
-      <c r="E20">
+      <c r="D29">
+        <v>49.044585987261136</v>
+      </c>
+      <c r="E29">
         <v>119.4285714285714</v>
       </c>
-      <c r="F20">
-        <v>73.69519832985387</v>
-      </c>
-      <c r="G20">
-        <v>252.1951219512195</v>
-      </c>
-      <c r="H20">
-        <v>74.3421052631579</v>
-      </c>
-      <c r="I20">
-        <v>163.3802816901409</v>
+      <c r="F29">
+        <v>73.695198329853866</v>
+      </c>
+      <c r="G29">
+        <v>252.19512195121951</v>
+      </c>
+      <c r="H29">
+        <v>74.342105263157904</v>
+      </c>
+      <c r="I29">
+        <v>163.38028169014089</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5859D5DE-8441-844F-A729-FC4E8B1633E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="HealthScore 2.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -97,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,11 +144,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -164,14 +155,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -218,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,27 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,24 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,692 +442,687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="49.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>80.7</v>
       </c>
-      <c r="C4">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="D4">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="E4">
-        <v>1.4147000000000001</v>
-      </c>
-      <c r="F4">
+      <c r="C5">
+        <v>0.0267</v>
+      </c>
+      <c r="D5">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.4147</v>
+      </c>
+      <c r="F5">
         <v>81</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1.3229</v>
       </c>
-      <c r="H4">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="I4">
-        <v>1.6708000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="H5">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.6708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5.8</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.6</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>7.1</v>
       </c>
-      <c r="E5">
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F6">
         <v>6.6</v>
       </c>
-      <c r="G5">
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="H5">
+      <c r="G6">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="H6">
         <v>7.1</v>
       </c>
-      <c r="I5">
-        <v>0.29999999999999982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="I6">
+        <v>0.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>10.3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>10.7</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>11.4</v>
       </c>
-      <c r="G6">
-        <v>0.40000000000000041</v>
-      </c>
-      <c r="H6">
+      <c r="G7">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>4.6</v>
+      </c>
+      <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>6.3</v>
       </c>
-      <c r="E7">
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="F7">
-        <v>6.4</v>
-      </c>
-      <c r="G7">
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="H7">
-        <v>5.5</v>
-      </c>
-      <c r="I7">
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3.1</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>6.2</v>
-      </c>
       <c r="E8">
-        <v>0.60000000000000053</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F8">
         <v>6.4</v>
       </c>
       <c r="G8">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="H8">
+        <v>5.5</v>
+      </c>
+      <c r="I8">
+        <v>0.9000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3.1</v>
+      </c>
+      <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="H8">
+      <c r="D9">
+        <v>6.2</v>
+      </c>
+      <c r="E9">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="F9">
+        <v>6.4</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
         <v>5.7</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7.7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.8</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>9.1</v>
       </c>
-      <c r="E9">
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="F9">
+      <c r="E10">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="F10">
         <v>11.4</v>
       </c>
-      <c r="G9">
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="H9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I9">
-        <v>0.69999999999999929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="G10">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="H10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.6999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3.4</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>0.7</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>3.1</v>
       </c>
-      <c r="E10">
-        <v>0.30000000000000032</v>
-      </c>
-      <c r="F10">
+      <c r="E11">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="F11">
         <v>3.6</v>
       </c>
-      <c r="G10">
-        <v>0.30000000000000032</v>
-      </c>
-      <c r="H10">
+      <c r="G11">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="H11">
         <v>2.7</v>
       </c>
-      <c r="I10">
-        <v>0.30000000000000032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="I11">
+        <v>0.3000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11">
+      <c r="C12">
+        <v>1.1</v>
+      </c>
+      <c r="D12">
         <v>14.2</v>
       </c>
-      <c r="E11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F11">
+      <c r="E12">
+        <v>1.1</v>
+      </c>
+      <c r="F12">
         <v>14.2</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>1.5</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>12.8</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>10.4</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="D16">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E16">
-        <v>6.7</v>
-      </c>
-      <c r="F16">
-        <v>11.1</v>
-      </c>
-      <c r="G16">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H16">
-        <v>13.4</v>
-      </c>
-      <c r="I16">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1.2</v>
-      </c>
-      <c r="F17">
-        <v>0.6</v>
-      </c>
-      <c r="G17">
-        <v>0.9</v>
-      </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
-      <c r="I17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.9</v>
       </c>
       <c r="C18">
         <v>0.1</v>
       </c>
       <c r="D18">
+        <v>19.1</v>
+      </c>
+      <c r="E18">
+        <v>6.7</v>
+      </c>
+      <c r="F18">
+        <v>11.1</v>
+      </c>
+      <c r="G18">
+        <v>5.1</v>
+      </c>
+      <c r="H18">
+        <v>13.4</v>
+      </c>
+      <c r="I18">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>4.9</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>1.2</v>
       </c>
-      <c r="F18">
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>0.9</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>81215</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>429</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>75449</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>11437</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>69844</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>15751</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>80350</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <v>14555</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>10.3</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>0.2</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>6.4</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>3.7</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>8.9</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>3.8</v>
       </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
         <v>3.8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>4.8</v>
-      </c>
-      <c r="C25">
-        <v>0.1</v>
-      </c>
-      <c r="D25">
-        <v>1.9</v>
-      </c>
-      <c r="E25">
-        <v>2.5</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>3.8</v>
-      </c>
-      <c r="H25">
-        <v>3.1</v>
-      </c>
-      <c r="I25">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>51.3</v>
-      </c>
-      <c r="C26">
-        <v>0.3</v>
-      </c>
-      <c r="D26">
-        <v>32.5</v>
-      </c>
-      <c r="E26">
-        <v>12.6</v>
-      </c>
-      <c r="F26">
-        <v>31.6</v>
-      </c>
-      <c r="G26">
-        <v>8.6</v>
-      </c>
-      <c r="H26">
-        <v>48.5</v>
-      </c>
-      <c r="I26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>21.92545623689066</v>
-      </c>
-      <c r="C27">
-        <v>100.0011341800011</v>
-      </c>
-      <c r="D27">
-        <v>30.850316233309911</v>
-      </c>
-      <c r="E27">
-        <v>14.342629482071709</v>
-      </c>
-      <c r="F27">
-        <v>70.990625791740555</v>
-      </c>
-      <c r="G27">
-        <v>10.989010989010991</v>
-      </c>
-      <c r="H27">
-        <v>17.952549971978328</v>
-      </c>
-      <c r="I27">
-        <v>17.097415506958249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>5.8</v>
       </c>
       <c r="C28">
         <v>0.1</v>
       </c>
       <c r="D28">
+        <v>1.9</v>
+      </c>
+      <c r="E28">
+        <v>2.5</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>3.8</v>
+      </c>
+      <c r="H28">
+        <v>3.1</v>
+      </c>
+      <c r="I28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>51.3</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+      <c r="D29">
+        <v>32.5</v>
+      </c>
+      <c r="E29">
+        <v>12.6</v>
+      </c>
+      <c r="F29">
+        <v>31.6</v>
+      </c>
+      <c r="G29">
+        <v>8.6</v>
+      </c>
+      <c r="H29">
+        <v>48.5</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>21.92545623689066</v>
+      </c>
+      <c r="C30">
+        <v>100.0011341800011</v>
+      </c>
+      <c r="D30">
+        <v>30.85031623330991</v>
+      </c>
+      <c r="E30">
+        <v>14.34262948207171</v>
+      </c>
+      <c r="F30">
+        <v>70.99062579174056</v>
+      </c>
+      <c r="G30">
+        <v>10.98901098901099</v>
+      </c>
+      <c r="H30">
+        <v>17.95254997197833</v>
+      </c>
+      <c r="I30">
+        <v>17.09741550695825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>5.8</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31">
         <v>4.7</v>
       </c>
-      <c r="E28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F28">
+      <c r="E31">
+        <v>4.4</v>
+      </c>
+      <c r="F31">
         <v>6.4</v>
       </c>
-      <c r="G28">
+      <c r="G31">
         <v>4.3</v>
       </c>
-      <c r="H28">
+      <c r="H31">
         <v>0.8</v>
       </c>
-      <c r="I28">
+      <c r="I31">
         <v>1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
-        <v>46.683767766255187</v>
-      </c>
-      <c r="C29">
+      <c r="B32">
+        <v>46.68376776625519</v>
+      </c>
+      <c r="C32">
         <v>173.9130434782609</v>
       </c>
-      <c r="D29">
-        <v>49.044585987261136</v>
-      </c>
-      <c r="E29">
+      <c r="D32">
+        <v>49.04458598726114</v>
+      </c>
+      <c r="E32">
         <v>119.4285714285714</v>
       </c>
-      <c r="F29">
-        <v>73.695198329853866</v>
-      </c>
-      <c r="G29">
-        <v>252.19512195121951</v>
-      </c>
-      <c r="H29">
-        <v>74.342105263157904</v>
-      </c>
-      <c r="I29">
-        <v>163.38028169014089</v>
+      <c r="F32">
+        <v>73.69519832985387</v>
+      </c>
+      <c r="G32">
+        <v>252.1951219512195</v>
+      </c>
+      <c r="H32">
+        <v>74.3421052631579</v>
+      </c>
+      <c r="I32">
+        <v>163.3802816901409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
